--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanyaaaas/Documents/Intro_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6798E0A3-CBA2-CA43-89AC-45B3F1A9B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1D194-571B-E74C-9F33-6923BC7B1756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="student_data" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -922,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,4 +1135,223 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469B5660-E28A-B349-BD23-C19CBFD8F284}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>